--- a/documents/gant_chart.xlsx
+++ b/documents/gant_chart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSM\Desktop\system\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B8035\Desktop\TN31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7D192-753C-453A-8C33-BAAC4CA49150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="336" windowWidth="19620" windowHeight="12000" xr2:uid="{2C684693-13CA-43A4-9450-8D3CF26E3DB7}"/>
+    <workbookView xWindow="2655" yWindow="330" windowWidth="19620" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>体調管理システム</t>
     <rPh sb="0" eb="2">
@@ -143,13 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブシステム設計</t>
     <rPh sb="6" eb="8">
       <t>セッケイ</t>
@@ -206,31 +198,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディング1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディング2</t>
-  </si>
-  <si>
-    <t>コーディング3</t>
-  </si>
-  <si>
-    <t>コーディング4</t>
-  </si>
-  <si>
     <t>説明書</t>
     <rPh sb="0" eb="3">
       <t>セツメイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>!health</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!elist&amp;!cmdlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!mylist</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +282,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -528,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +644,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,26 +967,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C6D57-39F8-4A9B-BD80-342012199001}">
-  <dimension ref="A1:DS45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DS44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CU5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="DA16" sqref="DA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" customWidth="1"/>
-    <col min="2" max="3" width="9.59765625" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="123" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:123" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1117,7 @@
       <c r="DR1" s="26"/>
       <c r="DS1" s="27"/>
     </row>
-    <row r="2" spans="1:123" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:123" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1478,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="3" spans="1:123" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:123" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -1818,10 +1844,10 @@
         <v>11</v>
       </c>
       <c r="DS3" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:123" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1864,7 @@
       <c r="N4" s="20"/>
       <c r="AR4" s="19"/>
     </row>
-    <row r="5" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1852,12 +1878,12 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:D45" si="0">DATEDIF(B6,C6,"d")</f>
+        <f t="shared" ref="D6:D44" si="0">DATEDIF(B6,C6,"d")</f>
         <v>0</v>
       </c>
       <c r="J6" s="20"/>
@@ -1870,7 +1896,7 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1908,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1890,8 +1916,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1899,51 +1930,66 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="10" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-    </row>
-    <row r="11" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="34"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+    </row>
+    <row r="11" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="20"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-    </row>
-    <row r="12" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AI12" s="20"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+    </row>
+    <row r="13" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1951,25 +1997,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AI13" s="20"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-    </row>
-    <row r="14" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AP13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+    </row>
+    <row r="14" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -1987,44 +2055,37 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AP14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-    </row>
-    <row r="15" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="21"/>
+    </row>
+    <row r="15" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
       <c r="AP15" s="21"/>
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
@@ -2034,42 +2095,95 @@
       <c r="AZ15" s="21"/>
       <c r="BA15" s="21"/>
       <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-    </row>
-    <row r="16" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BN15" s="34"/>
+      <c r="BO15" s="34"/>
+      <c r="BP15" s="34"/>
+      <c r="BQ15" s="34"/>
+      <c r="BR15" s="34"/>
+      <c r="BU15" s="35"/>
+      <c r="BV15" s="35"/>
+      <c r="BW15" s="35"/>
+      <c r="BX15" s="35"/>
+      <c r="BY15" s="35"/>
+      <c r="CB15" s="35"/>
+      <c r="CC15" s="35"/>
+      <c r="CD15" s="35"/>
+      <c r="CE15" s="35"/>
+      <c r="CF15" s="35"/>
+      <c r="CI15" s="35"/>
+      <c r="CJ15" s="35"/>
+      <c r="CK15" s="35"/>
+      <c r="CZ15" s="35"/>
+    </row>
+    <row r="16" spans="1:123" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AP16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="35"/>
+    </row>
+    <row r="17" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="21"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21"/>
+    </row>
+    <row r="18" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.45">
+        <f>DATEDIF(B18,C18,"d")</f>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BU18" s="20"/>
+      <c r="BV18" s="20"/>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+    </row>
+    <row r="19" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -2077,18 +2191,20 @@
         <f>DATEDIF(B19,C19,"d")</f>
         <v>0</v>
       </c>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BU19" s="21"/>
-      <c r="BV19" s="21"/>
-      <c r="BW19" s="21"/>
-      <c r="BX19" s="21"/>
-      <c r="BY19" s="21"/>
-    </row>
-    <row r="20" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="19"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+    </row>
+    <row r="20" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
@@ -2096,36 +2212,26 @@
         <f>DATEDIF(B20,C20,"d")</f>
         <v>0</v>
       </c>
-      <c r="CB20" s="21"/>
-      <c r="CC20" s="21"/>
-      <c r="CD20" s="21"/>
-      <c r="CE20" s="21"/>
-      <c r="CF20" s="21"/>
-      <c r="CG20" s="19"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="21"/>
-      <c r="CJ20" s="21"/>
-      <c r="CK20" s="21"/>
-      <c r="CL20" s="21"/>
-      <c r="CM20" s="21"/>
-    </row>
-    <row r="21" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <f>DATEDIF(B21,C21,"d")</f>
-        <v>0</v>
-      </c>
-      <c r="CZ21" s="21"/>
-      <c r="DA21" s="21"/>
-      <c r="DD21" s="21"/>
-      <c r="DE21" s="21"/>
-      <c r="DF21" s="21"/>
-      <c r="DG21" s="21"/>
-      <c r="DH21" s="21"/>
-    </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.45">
+      <c r="CZ20" s="21"/>
+      <c r="DA20" s="21"/>
+      <c r="DD20" s="21"/>
+      <c r="DE20" s="21"/>
+      <c r="DF20" s="21"/>
+      <c r="DG20" s="21"/>
+      <c r="DH20" s="21"/>
+    </row>
+    <row r="21" spans="1:112" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2136,7 +2242,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2147,7 +2253,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2158,7 +2264,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2169,7 +2275,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2180,7 +2286,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2191,7 +2297,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2202,7 +2308,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2213,7 +2319,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2224,7 +2330,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2235,7 +2341,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2246,7 +2352,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2257,7 +2363,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2268,7 +2374,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2279,7 +2385,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2290,7 +2396,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2301,7 +2407,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2312,7 +2418,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2323,7 +2429,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2334,7 +2440,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2345,7 +2451,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2356,7 +2462,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2367,7 +2473,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2377,17 +2483,6 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
